--- a/biology/Histoire de la zoologie et de la botanique/Johannes_Thienemann/Johannes_Thienemann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johannes_Thienemann/Johannes_Thienemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johannes Thienemann est un ornithologue allemand, né le 12 novembre 1863 à Gangloffsömmern en province de Saxe et mort le 12 avril 1938 à Rybachy (en) en province de Prusse-Orientale.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thienemann se consacre à l’étude des migrations d’oiseaux qui n’étaient pas encore clairement comprises à son époque. C’est lui qui, utilisant une technique mise au point par le Danois Hans Christian Cornelius Mortensen (1856-1921), entreprend le baguage systématique des oiseaux migrateurs. 
 Surnommé le Vogelprofessor (professeur-oiseau), il installe en 1901 la première station d’observation ornithologique à Rossiten, en Prusse-Orientale, appelée Vogelwarte Rossitten (aujourd’hui Rybachy (en) en Russie). Cette station ornithologique, qui existe encore, acquiert une grande renommée grâce à ses publications signées par les meilleurs spécialistes de l’époque. Fermée en 1944, elle ouvre à nouveau ses portes en 1956. Plus tard, elle est prise en charge par l’Académie des sciences de Saint-Pétersbourg mais à cause du manque de moyen financier, toutes les subventions ont été suspendues. Actuellement les recherches sont maintenues essentiellement grâce à des dons et au financement de la fondation Heinz Sielmann.
